--- a/DataPool/Folha/Cadastros Gerais/Configurações/Conf. Valor Padrão/Conf. Valor Padrão.xlsx
+++ b/DataPool/Folha/Cadastros Gerais/Configurações/Conf. Valor Padrão/Conf. Valor Padrão.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastrar" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>IDVLRPADRAO</t>
   </si>
@@ -39,10 +39,10 @@
     <t>Teste</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -66,9 +66,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,84 +124,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +150,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -188,7 +172,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,13 +203,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,187 +217,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,30 +436,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -476,10 +452,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -489,7 +463,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +482,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,142 +519,142 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,8 +986,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1042,12 +1042,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1123,8 +1129,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1158,12 +1164,12 @@
     </row>
     <row r="2" spans="4:4">
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DataPool/Folha/Cadastros Gerais/Configurações/Conf. Valor Padrão/Conf. Valor Padrão.xlsx
+++ b/DataPool/Folha/Cadastros Gerais/Configurações/Conf. Valor Padrão/Conf. Valor Padrão.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastrar" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>IDVLRPADRAO</t>
   </si>
@@ -39,10 +39,10 @@
     <t>Teste</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -50,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,6 +64,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -73,14 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,6 +113,14 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,61 +163,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,12 +217,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,19 +367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,145 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +454,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,7 +463,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,21 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -513,148 +513,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,8 +986,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1049,11 +1049,9 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1127,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1164,12 +1162,12 @@
     </row>
     <row r="2" spans="4:4">
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
